--- a/src/main/resource/File No.1.xlsx
+++ b/src/main/resource/File No.1.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="6180"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <oleSize ref="A7:K20"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -496,9 +495,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -546,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -581,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,7 +791,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A25" sqref="A25:L28"/>
     </sheetView>
   </sheetViews>
@@ -915,17 +911,17 @@
         <f>F4-G4</f>
         <v>17500</v>
       </c>
-      <c r="I4" s="1" t="e">
+      <c r="I4" s="1">
         <f>DATEDIF(E4,"31.12.2020","M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J4" s="1" t="e">
+        <v>158</v>
+      </c>
+      <c r="J4" s="1">
         <f>((5*H4)/100)*I4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="1" t="e">
+        <v>138250</v>
+      </c>
+      <c r="K4" s="1">
         <f>H4+J4</f>
-        <v>#VALUE!</v>
+        <v>155750</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>82</v>
@@ -957,17 +953,17 @@
         <f t="shared" ref="H5:H23" si="0">F5-G5</f>
         <v>15000</v>
       </c>
-      <c r="I5" s="1" t="e">
+      <c r="I5" s="1">
         <f t="shared" ref="I5:I23" si="1">DATEDIF(E5,"31.12.2020","M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="1" t="e">
+        <v>156</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" ref="J5:J23" si="2">((5*H5)/100)*I5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="1" t="e">
+        <v>117000</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" ref="K5:K23" si="3">H5+J5</f>
-        <v>#VALUE!</v>
+        <v>132000</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>82</v>
@@ -999,17 +995,17 @@
         <f t="shared" si="0"/>
         <v>12100</v>
       </c>
-      <c r="I6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>94380</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>106480</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>82</v>
@@ -1041,17 +1037,17 @@
         <f t="shared" si="0"/>
         <v>12000</v>
       </c>
-      <c r="I7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>93600</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="3"/>
+        <v>105600</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>82</v>
@@ -1083,17 +1079,17 @@
         <f t="shared" si="0"/>
         <v>17300</v>
       </c>
-      <c r="I8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>134940</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="3"/>
+        <v>152240</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>82</v>
@@ -1125,17 +1121,17 @@
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="I9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>37440</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="3"/>
+        <v>42240</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>82</v>
@@ -1167,17 +1163,17 @@
         <f t="shared" si="0"/>
         <v>11600</v>
       </c>
-      <c r="I10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>90480</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="3"/>
+        <v>102080</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>82</v>
@@ -1209,17 +1205,17 @@
         <f t="shared" si="0"/>
         <v>2811</v>
       </c>
-      <c r="I11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>21785.25</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="3"/>
+        <v>24596.25</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>82</v>
@@ -1251,17 +1247,17 @@
         <f t="shared" si="0"/>
         <v>14696</v>
       </c>
-      <c r="I12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>113894</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="3"/>
+        <v>128590</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>82</v>
@@ -1293,17 +1289,17 @@
         <f t="shared" si="0"/>
         <v>11107</v>
       </c>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>86079.25</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="3"/>
+        <v>97186.25</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>82</v>
@@ -1335,17 +1331,17 @@
         <f t="shared" si="0"/>
         <v>5718</v>
       </c>
-      <c r="I14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>44314.5</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="3"/>
+        <v>50032.5</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>82</v>
@@ -1377,17 +1373,17 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="I15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>23250</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="3"/>
+        <v>26250</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>82</v>
@@ -1419,17 +1415,17 @@
         <f t="shared" si="0"/>
         <v>19590</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>151822.5</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="3"/>
+        <v>171412.5</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>82</v>
@@ -1461,17 +1457,17 @@
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="I17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>32130</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="3"/>
+        <v>36330</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>82</v>
@@ -1503,17 +1499,17 @@
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
-      <c r="I18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>102960</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="3"/>
+        <v>116160</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>82</v>
@@ -1545,17 +1541,17 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>34425</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="3"/>
+        <v>38925</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>82</v>
@@ -1587,17 +1583,17 @@
         <f t="shared" si="0"/>
         <v>3100</v>
       </c>
-      <c r="I20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>23715</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="3"/>
+        <v>26815</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>82</v>
@@ -1629,17 +1625,17 @@
         <f t="shared" si="0"/>
         <v>7800</v>
       </c>
-      <c r="I21" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>59670</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="3"/>
+        <v>67470</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>82</v>
@@ -1671,17 +1667,17 @@
         <f t="shared" si="0"/>
         <v>6850</v>
       </c>
-      <c r="I22" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="2"/>
+        <v>52402.5</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="3"/>
+        <v>59252.5</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>82</v>
@@ -1713,17 +1709,17 @@
         <f t="shared" si="0"/>
         <v>4100</v>
       </c>
-      <c r="I23" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="2"/>
+        <v>31365</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="3"/>
+        <v>35465</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>82</v>
@@ -1745,9 +1741,9 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="1" t="e">
+      <c r="K24" s="1">
         <f>SUM(K4:K23)</f>
-        <v>#VALUE!</v>
+        <v>1674875</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="12"/>
@@ -1850,7 +1846,6 @@
       <c r="P29" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="16">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="L2:L3"/>
@@ -1881,7 +1876,7 @@
   </sheetPr>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:G24"/>
     </sheetView>
   </sheetViews>
@@ -2021,17 +2016,17 @@
         <f t="shared" ref="H5:H20" si="0">F5-G5</f>
         <v>640</v>
       </c>
-      <c r="I5" s="1" t="e">
+      <c r="I5" s="1">
         <f>DATEDIF(E5,"31.12.2020","M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J5" s="1" t="e">
+        <v>155</v>
+      </c>
+      <c r="J5" s="1">
         <f t="shared" ref="J5:J20" si="1">((5*H5)/100)*I5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K5" s="1" t="e">
+        <v>4960</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" ref="K5:K20" si="2">H5+J5</f>
-        <v>#VALUE!</v>
+        <v>5600</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>82</v>
@@ -2063,17 +2058,17 @@
         <f t="shared" si="0"/>
         <v>17000</v>
       </c>
-      <c r="I6" s="1" t="e">
+      <c r="I6" s="1">
         <f t="shared" ref="I6:I23" si="3">DATEDIF(E6,"31.12.2020","M")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>158</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>134300</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="2"/>
+        <v>151300</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>82</v>
@@ -2105,17 +2100,17 @@
         <f t="shared" si="0"/>
         <v>4872</v>
       </c>
-      <c r="I7" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>37758</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="2"/>
+        <v>42630</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>82</v>
@@ -2147,17 +2142,17 @@
         <f t="shared" si="0"/>
         <v>4968</v>
       </c>
-      <c r="I8" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J8" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>38502</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>43470</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>82</v>
@@ -2189,17 +2184,17 @@
         <f t="shared" si="0"/>
         <v>23680</v>
       </c>
-      <c r="I9" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J9" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>182336</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>206016</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>82</v>
@@ -2231,17 +2226,17 @@
         <f t="shared" si="0"/>
         <v>13680</v>
       </c>
-      <c r="I10" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J10" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>105336</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>119016</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>82</v>
@@ -2273,17 +2268,17 @@
         <f t="shared" si="0"/>
         <v>12790</v>
       </c>
-      <c r="I11" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="1"/>
+        <v>98483</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>111273</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>82</v>
@@ -2315,17 +2310,17 @@
         <f t="shared" si="0"/>
         <v>7200</v>
       </c>
-      <c r="I12" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J12" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>55440</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>62640</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>82</v>
@@ -2357,17 +2352,17 @@
         <f t="shared" si="0"/>
         <v>7923</v>
       </c>
-      <c r="I13" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J13" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>61403.25</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>69326.25</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>82</v>
@@ -2399,17 +2394,17 @@
         <f t="shared" si="0"/>
         <v>11721</v>
       </c>
-      <c r="I14" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J14" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>90837.75</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>102558.75</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>82</v>
@@ -2441,17 +2436,17 @@
         <f t="shared" si="0"/>
         <v>16671</v>
       </c>
-      <c r="I15" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K15" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="1"/>
+        <v>129200.25</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="2"/>
+        <v>145871.25</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>82</v>
@@ -2483,17 +2478,17 @@
         <f t="shared" si="0"/>
         <v>11107</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>86079.25</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>97186.25</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>82</v>
@@ -2525,17 +2520,17 @@
         <f t="shared" si="0"/>
         <v>13258</v>
       </c>
-      <c r="I17" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>102749.5</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>116007.5</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>82</v>
@@ -2567,17 +2562,17 @@
         <f t="shared" si="0"/>
         <v>14470</v>
       </c>
-      <c r="I18" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>112142.5</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>126612.5</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>82</v>
@@ -2609,17 +2604,17 @@
         <f t="shared" si="0"/>
         <v>14132</v>
       </c>
-      <c r="I19" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>109523</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>123655</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>82</v>
@@ -2651,17 +2646,17 @@
         <f t="shared" si="0"/>
         <v>16280</v>
       </c>
-      <c r="I20" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>126170</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>142450</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>82</v>
@@ -2693,17 +2688,17 @@
         <f>F21-G21</f>
         <v>11700</v>
       </c>
-      <c r="I21" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="1" t="e">
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J21" s="1">
         <f>((5*H21)/100)*I21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" s="1" t="e">
+        <v>90675</v>
+      </c>
+      <c r="K21" s="1">
         <f>H21+J21</f>
-        <v>#VALUE!</v>
+        <v>102375</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>82</v>
@@ -2735,17 +2730,17 @@
         <f t="shared" ref="H22:H23" si="4">F22-G22</f>
         <v>11338</v>
       </c>
-      <c r="I22" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J22" s="1" t="e">
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" ref="J22:J23" si="5">((5*H22)/100)*I22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" s="1" t="e">
+        <v>87869.5</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" ref="K22:K23" si="6">H22+J22</f>
-        <v>#VALUE!</v>
+        <v>99207.5</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>82</v>
@@ -2777,17 +2772,17 @@
         <f t="shared" si="4"/>
         <v>16950</v>
       </c>
-      <c r="I23" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J23" s="1" t="e">
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="J23" s="1">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" s="1" t="e">
+        <v>131362.5</v>
+      </c>
+      <c r="K23" s="1">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>148312.5</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>82</v>
@@ -2809,9 +2804,9 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="14"/>
-      <c r="K24" s="1" t="e">
+      <c r="K24" s="1">
         <f>SUM(K4:K23)</f>
-        <v>#VALUE!</v>
+        <v>3690382.5</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="12"/>
@@ -2914,18 +2909,17 @@
       <c r="P29" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A25:L28"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
